--- a/helper_data/numbers_helper.xlsx
+++ b/helper_data/numbers_helper.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhnw365-my.sharepoint.com/personal/jan_zwicky_fhnw_ch/Documents/Text-To-Speech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="275" documentId="8_{6B35F0C3-DE9F-4521-9181-E1BEE38A111A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D79750C-D964-4C10-BC95-7DE9F6F93BD8}"/>
+  <xr:revisionPtr revIDLastSave="456" documentId="8_{6B35F0C3-DE9F-4521-9181-E1BEE38A111A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0516CCFE-63DF-4679-B14D-32FAA2C5D799}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="2" xr2:uid="{102AC6CB-56E7-4332-8A21-1A395C83D910}"/>
+    <workbookView minimized="1" xWindow="11646" yWindow="1848" windowWidth="17280" windowHeight="10038" activeTab="3" xr2:uid="{102AC6CB-56E7-4332-8A21-1A395C83D910}"/>
   </bookViews>
   <sheets>
     <sheet name="Numbers" sheetId="1" r:id="rId1"/>
     <sheet name="Zeiten &amp; Datum" sheetId="4" r:id="rId2"/>
-    <sheet name="Ordinal_deklination" sheetId="3" r:id="rId3"/>
-    <sheet name="Cities" sheetId="2" r:id="rId4"/>
+    <sheet name="Abbreviations" sheetId="5" r:id="rId3"/>
+    <sheet name="Ordinal_deklination" sheetId="3" r:id="rId4"/>
+    <sheet name="Cities" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="367">
   <si>
     <t>Nummerisch/ Beispiel</t>
   </si>
@@ -378,9 +379,6 @@
   </si>
   <si>
     <t>ersti</t>
-  </si>
-  <si>
-    <t>viertel vor dü</t>
   </si>
   <si>
     <t>halbi drü</t>
@@ -792,6 +790,369 @@
   </si>
   <si>
     <t>plur</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Abkürzung</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>Fr.</t>
+  </si>
+  <si>
+    <t>Frau</t>
+  </si>
+  <si>
+    <t>Mehrwertsteuer</t>
+  </si>
+  <si>
+    <t>MwSt.</t>
+  </si>
+  <si>
+    <t>Herr</t>
+  </si>
+  <si>
+    <t>Hr.</t>
+  </si>
+  <si>
+    <t>Doktor</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>zu Händen</t>
+  </si>
+  <si>
+    <t>z. Hd.</t>
+  </si>
+  <si>
+    <t>bezüglich</t>
+  </si>
+  <si>
+    <t>bzgl.</t>
+  </si>
+  <si>
+    <t>gemäß</t>
+  </si>
+  <si>
+    <t>gem.</t>
+  </si>
+  <si>
+    <t>Artikel</t>
+  </si>
+  <si>
+    <t>Art.</t>
+  </si>
+  <si>
+    <t>Absatz</t>
+  </si>
+  <si>
+    <t>Abs.</t>
+  </si>
+  <si>
+    <t>Nummer</t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>exklusive</t>
+  </si>
+  <si>
+    <t>exkl.</t>
+  </si>
+  <si>
+    <t>inklusive</t>
+  </si>
+  <si>
+    <t>inkl.</t>
+  </si>
+  <si>
+    <t>meines Erachtens</t>
+  </si>
+  <si>
+    <t>m. E.</t>
+  </si>
+  <si>
+    <t>in Vertretung</t>
+  </si>
+  <si>
+    <t>i. V.</t>
+  </si>
+  <si>
+    <t>im Auftrag</t>
+  </si>
+  <si>
+    <t>i. A.</t>
+  </si>
+  <si>
+    <t>unter Umständen</t>
+  </si>
+  <si>
+    <t>u. U.</t>
+  </si>
+  <si>
+    <t>oben genannt</t>
+  </si>
+  <si>
+    <t>o. g.</t>
+  </si>
+  <si>
+    <t>in der Regel</t>
+  </si>
+  <si>
+    <t>i. d. R.</t>
+  </si>
+  <si>
+    <t>gegebenenfalls</t>
+  </si>
+  <si>
+    <t>ggf.</t>
+  </si>
+  <si>
+    <t>vergleiche</t>
+  </si>
+  <si>
+    <t>vgl.</t>
+  </si>
+  <si>
+    <t>ca.</t>
+  </si>
+  <si>
+    <t>das heißt</t>
+  </si>
+  <si>
+    <t>d. h.</t>
+  </si>
+  <si>
+    <t>etc.</t>
+  </si>
+  <si>
+    <t>beziehungsweise</t>
+  </si>
+  <si>
+    <t>bzw.</t>
+  </si>
+  <si>
+    <t>unter anderem</t>
+  </si>
+  <si>
+    <t>u. a.</t>
+  </si>
+  <si>
+    <t>zum Beispiel</t>
+  </si>
+  <si>
+    <t>z. B.</t>
+  </si>
+  <si>
+    <t>zum Bispiel</t>
+  </si>
+  <si>
+    <t>beziehigswis</t>
+  </si>
+  <si>
+    <t>et cetera</t>
+  </si>
+  <si>
+    <t>das heisst</t>
+  </si>
+  <si>
+    <t>circa</t>
+  </si>
+  <si>
+    <t>verglich</t>
+  </si>
+  <si>
+    <t>in dr Regel</t>
+  </si>
+  <si>
+    <t>obe gnennt</t>
+  </si>
+  <si>
+    <t>unter Umständ</t>
+  </si>
+  <si>
+    <t>im Uftrag</t>
+  </si>
+  <si>
+    <t>ir Verträtig</t>
+  </si>
+  <si>
+    <t>mines Erachtens</t>
+  </si>
+  <si>
+    <t>inklusiv</t>
+  </si>
+  <si>
+    <t>exklusiv</t>
+  </si>
+  <si>
+    <t>gmäss</t>
+  </si>
+  <si>
+    <t>zu Händ</t>
+  </si>
+  <si>
+    <t>Dokter</t>
+  </si>
+  <si>
+    <t>min.</t>
+  </si>
+  <si>
+    <t>max.</t>
+  </si>
+  <si>
+    <t>Abb.</t>
+  </si>
+  <si>
+    <t>Abbildung</t>
+  </si>
+  <si>
+    <t>Abbildig</t>
+  </si>
+  <si>
+    <t>Tab.</t>
+  </si>
+  <si>
+    <t>Tabelle</t>
+  </si>
+  <si>
+    <t>Tabällä</t>
+  </si>
+  <si>
+    <t>Prof.</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>Profässer</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>Schweizer Franke</t>
+  </si>
+  <si>
+    <t>Frankä</t>
+  </si>
+  <si>
+    <t>mindestens</t>
+  </si>
+  <si>
+    <t>maximal</t>
+  </si>
+  <si>
+    <t>Tsüri</t>
+  </si>
+  <si>
+    <t>Loosane</t>
+  </si>
+  <si>
+    <t>Winteruor</t>
+  </si>
+  <si>
+    <t>Sang Gallä</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>zum bispil</t>
+  </si>
+  <si>
+    <t>unter anderm</t>
+  </si>
+  <si>
+    <t>e cetera</t>
+  </si>
+  <si>
+    <t>cirka</t>
+  </si>
+  <si>
+    <t>vorgliche</t>
+  </si>
+  <si>
+    <t>i de regel</t>
+  </si>
+  <si>
+    <t>obä gnennt</t>
+  </si>
+  <si>
+    <t>unter Umstände</t>
+  </si>
+  <si>
+    <t>in Verträtig</t>
+  </si>
+  <si>
+    <t>zu Hande</t>
+  </si>
+  <si>
+    <t>Mehrwerstür</t>
+  </si>
+  <si>
+    <t>Mehrwerstüor</t>
+  </si>
+  <si>
+    <t>mindistens</t>
+  </si>
+  <si>
+    <t>Tabälä</t>
+  </si>
+  <si>
+    <t>Franke</t>
+  </si>
+  <si>
+    <t>elfi</t>
+  </si>
+  <si>
+    <t>zäni</t>
+  </si>
+  <si>
+    <t>nüni</t>
+  </si>
+  <si>
+    <t>achti</t>
+  </si>
+  <si>
+    <t>siebni</t>
+  </si>
+  <si>
+    <t>sechsi</t>
+  </si>
+  <si>
+    <t>füfi</t>
+  </si>
+  <si>
+    <t>Septämbor</t>
+  </si>
+  <si>
+    <t>Oktobor</t>
+  </si>
+  <si>
+    <t>Novämbor</t>
+  </si>
+  <si>
+    <t>Dezämbor</t>
+  </si>
+  <si>
+    <t>koma</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>viertel vor drü</t>
+  </si>
+  <si>
+    <t>St_Gallen_short</t>
   </si>
 </sst>
 </file>
@@ -1216,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0D0A95-DEDA-4243-943F-4F8F00442EF6}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1253,529 +1614,551 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>246</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>1000</v>
+        <v>132</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>6343</v>
+        <v>200</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
+        <v>1000</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38">
+        <v>6343</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39">
         <v>10000</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>42</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
         <v>46</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B52" t="s">
         <v>62</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1790,7 +2173,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1811,7 +2194,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1822,7 +2205,7 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1833,7 +2216,7 @@
         <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1844,7 +2227,7 @@
         <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1855,7 +2238,7 @@
         <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1866,7 +2249,7 @@
         <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1877,7 +2260,7 @@
         <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1885,7 +2268,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>209</v>
+      </c>
+      <c r="C8" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1893,7 +2279,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>210</v>
+      </c>
+      <c r="C9" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1901,7 +2290,10 @@
         <v>0.375</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>211</v>
+      </c>
+      <c r="C10" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1909,7 +2301,10 @@
         <v>0.33333333333333298</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+      <c r="C11" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1917,7 +2312,10 @@
         <v>0.29166666666666602</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="C12" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1925,7 +2323,10 @@
         <v>0.25</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>214</v>
+      </c>
+      <c r="C13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1933,7 +2334,10 @@
         <v>0.20833333333333301</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+      <c r="C14" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1941,7 +2345,10 @@
         <v>0.16666666666666699</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1949,7 +2356,10 @@
         <v>0.125</v>
       </c>
       <c r="B16" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1957,7 +2367,10 @@
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="B17" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1965,103 +2378,142 @@
         <v>4.1666666666667303E-2</v>
       </c>
       <c r="B18" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>230</v>
+        <v>229</v>
+      </c>
+      <c r="C19" t="s">
+        <v>229</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>231</v>
+        <v>230</v>
+      </c>
+      <c r="C20" t="s">
+        <v>230</v>
       </c>
       <c r="D20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+      <c r="C21" t="s">
+        <v>231</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="C22" t="s">
+        <v>232</v>
       </c>
       <c r="D22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>234</v>
+        <v>233</v>
+      </c>
+      <c r="C23" t="s">
+        <v>233</v>
       </c>
       <c r="D23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>235</v>
+        <v>234</v>
+      </c>
+      <c r="C24" t="s">
+        <v>234</v>
       </c>
       <c r="D24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="C25" t="s">
+        <v>235</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>237</v>
+        <v>236</v>
+      </c>
+      <c r="C26" t="s">
+        <v>236</v>
       </c>
       <c r="D26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>238</v>
+        <v>237</v>
+      </c>
+      <c r="C27" t="s">
+        <v>359</v>
       </c>
       <c r="D27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="C28" t="s">
+        <v>360</v>
       </c>
       <c r="D28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="C29" t="s">
+        <v>361</v>
       </c>
       <c r="D29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="C30" t="s">
+        <v>362</v>
       </c>
       <c r="D30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2071,11 +2523,493 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DCFB58-E6A2-4ABA-BC82-6631C8630162}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="9.41796875" customWidth="1"/>
+    <col min="2" max="2" width="32.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.5234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" t="s">
+        <v>306</v>
+      </c>
+      <c r="D11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" t="s">
+        <v>309</v>
+      </c>
+      <c r="D14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" t="s">
+        <v>310</v>
+      </c>
+      <c r="D15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B16" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" t="s">
+        <v>311</v>
+      </c>
+      <c r="D16" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" t="s">
+        <v>312</v>
+      </c>
+      <c r="D17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>262</v>
+      </c>
+      <c r="B21" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" t="s">
+        <v>313</v>
+      </c>
+      <c r="D21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>260</v>
+      </c>
+      <c r="B22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" t="s">
+        <v>259</v>
+      </c>
+      <c r="D22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>258</v>
+      </c>
+      <c r="B23" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" t="s">
+        <v>314</v>
+      </c>
+      <c r="D23" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" t="s">
+        <v>315</v>
+      </c>
+      <c r="D24" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>252</v>
+      </c>
+      <c r="B27" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" t="s">
+        <v>347</v>
+      </c>
+      <c r="D27" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>316</v>
+      </c>
+      <c r="B28" t="s">
+        <v>330</v>
+      </c>
+      <c r="C28" t="s">
+        <v>330</v>
+      </c>
+      <c r="D28" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>317</v>
+      </c>
+      <c r="B29" t="s">
+        <v>331</v>
+      </c>
+      <c r="C29" t="s">
+        <v>331</v>
+      </c>
+      <c r="D29" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>318</v>
+      </c>
+      <c r="B30" t="s">
+        <v>319</v>
+      </c>
+      <c r="C30" t="s">
+        <v>320</v>
+      </c>
+      <c r="D30" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>321</v>
+      </c>
+      <c r="B31" t="s">
+        <v>322</v>
+      </c>
+      <c r="C31" t="s">
+        <v>323</v>
+      </c>
+      <c r="D31" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>324</v>
+      </c>
+      <c r="B32" t="s">
+        <v>325</v>
+      </c>
+      <c r="C32" t="s">
+        <v>326</v>
+      </c>
+      <c r="D32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>327</v>
+      </c>
+      <c r="B33" t="s">
+        <v>328</v>
+      </c>
+      <c r="C33" t="s">
+        <v>329</v>
+      </c>
+      <c r="D33" t="s">
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B39F442-7702-4133-AA1C-50B16E28B9D9}">
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2087,1125 +3021,1269 @@
     <col min="5" max="5" width="11.83984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.26171875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.1015625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1015625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" t="s">
         <v>140</v>
       </c>
-      <c r="B2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>141</v>
       </c>
-      <c r="D2" t="s">
-        <v>142</v>
-      </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="H2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="H3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" t="s">
         <v>144</v>
       </c>
-      <c r="D4" t="s">
-        <v>145</v>
-      </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G4" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="H4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" t="s">
         <v>146</v>
       </c>
-      <c r="D5" t="s">
-        <v>147</v>
-      </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G5" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="H5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="s">
         <v>140</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>148</v>
       </c>
-      <c r="C6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" t="s">
-        <v>149</v>
-      </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F6" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="H6" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
-        <v>201</v>
+        <v>200</v>
+      </c>
+      <c r="H7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G8" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="H8" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G9" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="H9" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" t="s">
         <v>140</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>153</v>
       </c>
-      <c r="C10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" t="s">
-        <v>154</v>
-      </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G10" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="H10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G11" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="H11" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G12" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="H12" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G13" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="H13" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" t="s">
         <v>140</v>
       </c>
-      <c r="B14" t="s">
-        <v>246</v>
-      </c>
-      <c r="C14" t="s">
-        <v>141</v>
-      </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G14" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="H14" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G15" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="H15" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s">
+        <v>204</v>
+      </c>
+      <c r="H16" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" t="s">
+        <v>164</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" t="s">
         <v>140</v>
       </c>
-      <c r="B16" t="s">
-        <v>246</v>
-      </c>
-      <c r="C16" t="s">
-        <v>144</v>
-      </c>
-      <c r="D16" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" t="s">
+        <v>204</v>
+      </c>
+      <c r="H18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" t="s">
         <v>165</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" t="s">
+        <v>205</v>
+      </c>
+      <c r="H19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>208</v>
+      </c>
+      <c r="H20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>204</v>
+      </c>
+      <c r="H21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" t="s">
         <v>170</v>
       </c>
-      <c r="G16" t="s">
+      <c r="E22" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" t="s">
+        <v>201</v>
+      </c>
+      <c r="G22" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+      <c r="H22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>205</v>
+      </c>
+      <c r="H23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" t="s">
+        <v>204</v>
+      </c>
+      <c r="H24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" t="s">
+        <v>206</v>
+      </c>
+      <c r="H25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" t="s">
         <v>140</v>
       </c>
-      <c r="B17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="D26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" t="s">
+        <v>207</v>
+      </c>
+      <c r="H26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
         <v>161</v>
       </c>
-      <c r="E17" t="s">
-        <v>165</v>
-      </c>
-      <c r="F17" t="s">
-        <v>170</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="B27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" t="s">
+        <v>244</v>
+      </c>
+      <c r="D27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" t="s">
+        <v>207</v>
+      </c>
+      <c r="H27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" t="s">
+        <v>208</v>
+      </c>
+      <c r="H28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" t="s">
+        <v>208</v>
+      </c>
+      <c r="H29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+      <c r="H30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" t="s">
+        <v>201</v>
+      </c>
+      <c r="G31" t="s">
+        <v>205</v>
+      </c>
+      <c r="H31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" t="s">
+        <v>245</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" t="s">
+        <v>181</v>
+      </c>
+      <c r="E32" t="s">
+        <v>164</v>
+      </c>
+      <c r="F32" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" t="s">
+        <v>204</v>
+      </c>
+      <c r="H32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" t="s">
+        <v>182</v>
+      </c>
+      <c r="E33" t="s">
         <v>162</v>
       </c>
-      <c r="B18" t="s">
-        <v>221</v>
-      </c>
-      <c r="C18" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="F33" t="s">
+        <v>169</v>
+      </c>
+      <c r="G33" t="s">
+        <v>204</v>
+      </c>
+      <c r="H33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" t="s">
+        <v>220</v>
+      </c>
+      <c r="C34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" t="s">
+        <v>162</v>
+      </c>
+      <c r="F34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" t="s">
+        <v>204</v>
+      </c>
+      <c r="H34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" t="s">
+        <v>244</v>
+      </c>
+      <c r="D35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E35" t="s">
         <v>164</v>
       </c>
-      <c r="E18" t="s">
-        <v>163</v>
-      </c>
-      <c r="F18" t="s">
-        <v>170</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F35" t="s">
+        <v>169</v>
+      </c>
+      <c r="G35" t="s">
+        <v>204</v>
+      </c>
+      <c r="H35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" t="s">
+        <v>164</v>
+      </c>
+      <c r="F36" t="s">
+        <v>169</v>
+      </c>
+      <c r="G36" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" t="s">
+        <v>169</v>
+      </c>
+      <c r="G37" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" t="s">
+        <v>201</v>
+      </c>
+      <c r="G38" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+      <c r="H38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" t="s">
+        <v>244</v>
+      </c>
+      <c r="D39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E39" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" t="s">
+        <v>201</v>
+      </c>
+      <c r="G39" t="s">
+        <v>205</v>
+      </c>
+      <c r="H39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" t="s">
+        <v>190</v>
+      </c>
+      <c r="E40" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" t="s">
+        <v>204</v>
+      </c>
+      <c r="H40" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" t="s">
+        <v>169</v>
+      </c>
+      <c r="G41" t="s">
+        <v>204</v>
+      </c>
+      <c r="H41" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>183</v>
+      </c>
+      <c r="B42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" t="s">
+        <v>192</v>
+      </c>
+      <c r="E42" t="s">
+        <v>174</v>
+      </c>
+      <c r="F42" t="s">
+        <v>202</v>
+      </c>
+      <c r="G42" t="s">
+        <v>207</v>
+      </c>
+      <c r="H42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" t="s">
+        <v>244</v>
+      </c>
+      <c r="D43" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" t="s">
+        <v>202</v>
+      </c>
+      <c r="G43" t="s">
+        <v>207</v>
+      </c>
+      <c r="H43" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" t="s">
+        <v>194</v>
+      </c>
+      <c r="E44" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" t="s">
+        <v>169</v>
+      </c>
+      <c r="G44" t="s">
+        <v>204</v>
+      </c>
+      <c r="H44" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>183</v>
+      </c>
+      <c r="B45" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" t="s">
+        <v>164</v>
+      </c>
+      <c r="F45" t="s">
+        <v>169</v>
+      </c>
+      <c r="G45" t="s">
+        <v>204</v>
+      </c>
+      <c r="H45" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" t="s">
+        <v>196</v>
+      </c>
+      <c r="E46" t="s">
+        <v>164</v>
+      </c>
+      <c r="F46" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" t="s">
+        <v>204</v>
+      </c>
+      <c r="H46" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" t="s">
+        <v>244</v>
+      </c>
+      <c r="D47" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" t="s">
+        <v>164</v>
+      </c>
+      <c r="F47" t="s">
+        <v>169</v>
+      </c>
+      <c r="G47" t="s">
+        <v>204</v>
+      </c>
+      <c r="H47" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" t="s">
+        <v>245</v>
+      </c>
+      <c r="C48" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" t="s">
+        <v>164</v>
+      </c>
+      <c r="F48" t="s">
+        <v>169</v>
+      </c>
+      <c r="G48" t="s">
+        <v>204</v>
+      </c>
+      <c r="H48" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" t="s">
+        <v>199</v>
+      </c>
+      <c r="E49" t="s">
         <v>162</v>
       </c>
-      <c r="B19" t="s">
-        <v>221</v>
-      </c>
-      <c r="C19" t="s">
-        <v>245</v>
-      </c>
-      <c r="D19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E19" t="s">
-        <v>165</v>
-      </c>
-      <c r="F19" t="s">
-        <v>202</v>
-      </c>
-      <c r="G19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>162</v>
-      </c>
-      <c r="B20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" t="s">
-        <v>168</v>
-      </c>
-      <c r="E20" t="s">
-        <v>167</v>
-      </c>
-      <c r="F20" t="s">
-        <v>167</v>
-      </c>
-      <c r="G20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" t="s">
-        <v>221</v>
-      </c>
-      <c r="C21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F49" t="s">
         <v>169</v>
       </c>
-      <c r="E21" t="s">
-        <v>165</v>
-      </c>
-      <c r="F21" t="s">
-        <v>170</v>
-      </c>
-      <c r="G21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" t="s">
-        <v>171</v>
-      </c>
-      <c r="E22" t="s">
-        <v>170</v>
-      </c>
-      <c r="F22" t="s">
-        <v>202</v>
-      </c>
-      <c r="G22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" t="s">
-        <v>245</v>
-      </c>
-      <c r="D23" t="s">
-        <v>172</v>
-      </c>
-      <c r="E23" t="s">
-        <v>170</v>
-      </c>
-      <c r="F23" t="s">
-        <v>202</v>
-      </c>
-      <c r="G23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" t="s">
-        <v>173</v>
-      </c>
-      <c r="E24" t="s">
-        <v>163</v>
-      </c>
-      <c r="F24" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>162</v>
-      </c>
-      <c r="B25" t="s">
-        <v>148</v>
-      </c>
-      <c r="C25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" t="s">
-        <v>174</v>
-      </c>
-      <c r="E25" t="s">
-        <v>163</v>
-      </c>
-      <c r="F25" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B26" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" t="s">
-        <v>176</v>
-      </c>
-      <c r="E26" t="s">
-        <v>175</v>
-      </c>
-      <c r="F26" t="s">
-        <v>203</v>
-      </c>
-      <c r="G26" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>162</v>
-      </c>
-      <c r="B27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" t="s">
-        <v>245</v>
-      </c>
-      <c r="D27" t="s">
-        <v>177</v>
-      </c>
-      <c r="E27" t="s">
-        <v>175</v>
-      </c>
-      <c r="F27" t="s">
-        <v>203</v>
-      </c>
-      <c r="G27" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" t="s">
-        <v>178</v>
-      </c>
-      <c r="E28" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" t="s">
-        <v>167</v>
-      </c>
-      <c r="G28" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" t="s">
-        <v>153</v>
-      </c>
-      <c r="C29" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" t="s">
-        <v>179</v>
-      </c>
-      <c r="E29" t="s">
-        <v>165</v>
-      </c>
-      <c r="F29" t="s">
-        <v>167</v>
-      </c>
-      <c r="G29" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>162</v>
-      </c>
-      <c r="B30" t="s">
-        <v>246</v>
-      </c>
-      <c r="C30" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" t="s">
-        <v>180</v>
-      </c>
-      <c r="E30" t="s">
-        <v>170</v>
-      </c>
-      <c r="F30" t="s">
-        <v>202</v>
-      </c>
-      <c r="G30" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>162</v>
-      </c>
-      <c r="B31" t="s">
-        <v>246</v>
-      </c>
-      <c r="C31" t="s">
-        <v>245</v>
-      </c>
-      <c r="D31" t="s">
-        <v>181</v>
-      </c>
-      <c r="E31" t="s">
-        <v>170</v>
-      </c>
-      <c r="F31" t="s">
-        <v>202</v>
-      </c>
-      <c r="G31" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" t="s">
-        <v>246</v>
-      </c>
-      <c r="C32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" t="s">
-        <v>182</v>
-      </c>
-      <c r="E32" t="s">
-        <v>165</v>
-      </c>
-      <c r="F32" t="s">
-        <v>170</v>
-      </c>
-      <c r="G32" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B33" t="s">
-        <v>246</v>
-      </c>
-      <c r="C33" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" t="s">
-        <v>183</v>
-      </c>
-      <c r="E33" t="s">
-        <v>163</v>
-      </c>
-      <c r="F33" t="s">
-        <v>170</v>
-      </c>
-      <c r="G33" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
-        <v>184</v>
-      </c>
-      <c r="B34" t="s">
-        <v>221</v>
-      </c>
-      <c r="C34" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" t="s">
-        <v>185</v>
-      </c>
-      <c r="E34" t="s">
-        <v>163</v>
-      </c>
-      <c r="F34" t="s">
-        <v>170</v>
-      </c>
-      <c r="G34" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" t="s">
-        <v>184</v>
-      </c>
-      <c r="B35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C35" t="s">
-        <v>245</v>
-      </c>
-      <c r="D35" t="s">
-        <v>186</v>
-      </c>
-      <c r="E35" t="s">
-        <v>165</v>
-      </c>
-      <c r="F35" t="s">
-        <v>170</v>
-      </c>
-      <c r="G35" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
-        <v>184</v>
-      </c>
-      <c r="B36" t="s">
-        <v>221</v>
-      </c>
-      <c r="C36" t="s">
-        <v>144</v>
-      </c>
-      <c r="D36" t="s">
-        <v>187</v>
-      </c>
-      <c r="E36" t="s">
-        <v>165</v>
-      </c>
-      <c r="F36" t="s">
-        <v>170</v>
-      </c>
-      <c r="G36" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" t="s">
-        <v>184</v>
-      </c>
-      <c r="B37" t="s">
-        <v>221</v>
-      </c>
-      <c r="C37" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" t="s">
-        <v>188</v>
-      </c>
-      <c r="E37" t="s">
-        <v>165</v>
-      </c>
-      <c r="F37" t="s">
-        <v>170</v>
-      </c>
-      <c r="G37" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" t="s">
-        <v>184</v>
-      </c>
-      <c r="B38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" t="s">
-        <v>189</v>
-      </c>
-      <c r="E38" t="s">
-        <v>170</v>
-      </c>
-      <c r="F38" t="s">
-        <v>202</v>
-      </c>
-      <c r="G38" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" t="s">
-        <v>184</v>
-      </c>
-      <c r="B39" t="s">
-        <v>148</v>
-      </c>
-      <c r="C39" t="s">
-        <v>245</v>
-      </c>
-      <c r="D39" t="s">
-        <v>190</v>
-      </c>
-      <c r="E39" t="s">
-        <v>170</v>
-      </c>
-      <c r="F39" t="s">
-        <v>202</v>
-      </c>
-      <c r="G39" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" t="s">
-        <v>184</v>
-      </c>
-      <c r="B40" t="s">
-        <v>148</v>
-      </c>
-      <c r="C40" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" t="s">
-        <v>191</v>
-      </c>
-      <c r="E40" t="s">
-        <v>165</v>
-      </c>
-      <c r="F40" t="s">
-        <v>170</v>
-      </c>
-      <c r="G40" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
-        <v>184</v>
-      </c>
-      <c r="B41" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" t="s">
-        <v>192</v>
-      </c>
-      <c r="E41" t="s">
-        <v>165</v>
-      </c>
-      <c r="F41" t="s">
-        <v>170</v>
-      </c>
-      <c r="G41" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" t="s">
-        <v>184</v>
-      </c>
-      <c r="B42" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" t="s">
-        <v>141</v>
-      </c>
-      <c r="D42" t="s">
-        <v>193</v>
-      </c>
-      <c r="E42" t="s">
-        <v>175</v>
-      </c>
-      <c r="F42" t="s">
-        <v>203</v>
-      </c>
-      <c r="G42" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" t="s">
-        <v>184</v>
-      </c>
-      <c r="B43" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" t="s">
-        <v>245</v>
-      </c>
-      <c r="D43" t="s">
-        <v>194</v>
-      </c>
-      <c r="E43" t="s">
-        <v>175</v>
-      </c>
-      <c r="F43" t="s">
-        <v>203</v>
-      </c>
-      <c r="G43" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" t="s">
-        <v>184</v>
-      </c>
-      <c r="B44" t="s">
-        <v>153</v>
-      </c>
-      <c r="C44" t="s">
-        <v>144</v>
-      </c>
-      <c r="D44" t="s">
-        <v>195</v>
-      </c>
-      <c r="E44" t="s">
-        <v>165</v>
-      </c>
-      <c r="F44" t="s">
-        <v>170</v>
-      </c>
-      <c r="G44" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" t="s">
-        <v>184</v>
-      </c>
-      <c r="B45" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" t="s">
-        <v>196</v>
-      </c>
-      <c r="E45" t="s">
-        <v>165</v>
-      </c>
-      <c r="F45" t="s">
-        <v>170</v>
-      </c>
-      <c r="G45" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" t="s">
-        <v>184</v>
-      </c>
-      <c r="B46" t="s">
-        <v>246</v>
-      </c>
-      <c r="C46" t="s">
-        <v>141</v>
-      </c>
-      <c r="D46" t="s">
-        <v>197</v>
-      </c>
-      <c r="E46" t="s">
-        <v>165</v>
-      </c>
-      <c r="F46" t="s">
-        <v>170</v>
-      </c>
-      <c r="G46" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" t="s">
-        <v>184</v>
-      </c>
-      <c r="B47" t="s">
-        <v>246</v>
-      </c>
-      <c r="C47" t="s">
-        <v>245</v>
-      </c>
-      <c r="D47" t="s">
-        <v>198</v>
-      </c>
-      <c r="E47" t="s">
-        <v>165</v>
-      </c>
-      <c r="F47" t="s">
-        <v>170</v>
-      </c>
-      <c r="G47" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" t="s">
-        <v>184</v>
-      </c>
-      <c r="B48" t="s">
-        <v>246</v>
-      </c>
-      <c r="C48" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" t="s">
-        <v>199</v>
-      </c>
-      <c r="E48" t="s">
-        <v>165</v>
-      </c>
-      <c r="F48" t="s">
-        <v>170</v>
-      </c>
-      <c r="G48" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" t="s">
-        <v>184</v>
-      </c>
-      <c r="B49" t="s">
-        <v>246</v>
-      </c>
-      <c r="C49" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" t="s">
-        <v>200</v>
-      </c>
-      <c r="E49" t="s">
-        <v>163</v>
-      </c>
-      <c r="F49" t="s">
-        <v>170</v>
-      </c>
       <c r="G49" t="s">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="H49" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3214,18 +4292,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE4A692-E4D1-4DEB-9164-719B5653CDBF}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11.20703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3234,102 +4313,123 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" t="s">
         <v>222</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>223</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>224</v>
       </c>
-      <c r="H1" t="s">
-        <v>225</v>
-      </c>
       <c r="I1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>332</v>
       </c>
       <c r="I2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
       </c>
       <c r="I4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>333</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>334</v>
       </c>
       <c r="I7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+      <c r="C8" t="s">
+        <v>131</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -3337,32 +4437,41 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>335</v>
       </c>
       <c r="I9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>126</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
       </c>
       <c r="I11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
